--- a/data/list_LSMPAs.xlsx
+++ b/data/list_LSMPAs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynham/Documents/GitHub/LSMPA_spillover/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A15F4E2-54EA-9A48-8D22-4BA2DB2C52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3D2FB-0877-1A4B-BAB0-D13AEB6713F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16920" xr2:uid="{D1B78ED1-9CC7-5D4E-973A-0C3BB5995D36}"/>
+    <workbookView xWindow="2100" yWindow="800" windowWidth="28040" windowHeight="16920" xr2:uid="{D1B78ED1-9CC7-5D4E-973A-0C3BB5995D36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Wikipedia" sheetId="2" r:id="rId2"/>
+    <sheet name="cleaned" sheetId="3" r:id="rId1"/>
+    <sheet name="draft &amp; notes" sheetId="1" r:id="rId2"/>
+    <sheet name="Wikipedia" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -388,26 +389,302 @@
     <t>Galápagos Marine Reserve</t>
   </si>
   <si>
+    <t>Yes?</t>
+  </si>
+  <si>
     <t>Area (km^2)</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Established in 1998 but apparently not "enforced" until 2003</t>
   </si>
   <si>
     <t>https://www.int-res.com/articles/feature/m585p001.pdf</t>
+  </si>
+  <si>
+    <t>Expanded in 2016</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Only within 50 nmi of each island</t>
+  </si>
+  <si>
+    <t>https://sdgs.un.org/partnerships/marae-moana-cook-islands-marine-park-0</t>
+  </si>
+  <si>
+    <t>Marae Moana 1</t>
+  </si>
+  <si>
+    <t>Marae Moana 2</t>
+  </si>
+  <si>
+    <t>https://mer-de-corail.gouv.nc/en/missions-protect/current-regulations</t>
+  </si>
+  <si>
+    <t>New fishing prohibitions introduced in 2018 but a very small area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Expanded in 2014, 5 different areas</t>
+  </si>
+  <si>
+    <t>Pacific Remote Islands 1</t>
+  </si>
+  <si>
+    <t>Coral Sea Marine Park - National Park Zone only</t>
+  </si>
+  <si>
+    <t>https://parksaustralia.gov.au/marine/pub/plans/coral-sea-management-plan-2018.pdf</t>
+  </si>
+  <si>
+    <t>Not contiguous</t>
+  </si>
+  <si>
+    <t>Saint Paul &amp; Amsterdam</t>
+  </si>
+  <si>
+    <t>September 15 2016</t>
+  </si>
+  <si>
+    <t>https://www.pewtrusts.org/en/about/news-room/press-releases-and-statements/2016/09/14/pew-applauds-united-kingdoms-designation-of-pitcairn-islands-marine-reserve</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/zones/7707499</t>
+  </si>
+  <si>
+    <t>13th November 2020</t>
+  </si>
+  <si>
+    <t>https://tristandc.com/government/news-2020-11-12-mpzgov13nov2020.php</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha Fully Protected Zone</t>
+  </si>
+  <si>
+    <t>January 1st 2020</t>
+  </si>
+  <si>
+    <t>https://www.pewtrusts.org/en/research-and-analysis/articles/2020/01/01/palau-national-marine-sanctuary-goes-into-effect</t>
+  </si>
+  <si>
+    <t>https://impact.economist.com/ocean/biodiversity-ecosystems-and-resources/chiles-marine-protected-areas-a-case-study-in-coastal-governance</t>
+  </si>
+  <si>
+    <t>Juan Fernández archipelago</t>
+  </si>
+  <si>
+    <t>Some sources say area is 740000</t>
+  </si>
+  <si>
+    <t>Notes 2</t>
+  </si>
+  <si>
+    <t>Notes 1</t>
+  </si>
+  <si>
+    <t>Not yet implemented? https://mpatlas.org/zones/68808636</t>
+  </si>
+  <si>
+    <t>https://www.ascension.gov.ac/map-marker/mpa-marine-protected-area</t>
+  </si>
+  <si>
+    <t>Maybe not yet implemented?</t>
+  </si>
+  <si>
+    <t>Reopened?</t>
+  </si>
+  <si>
+    <t>Revillagigedo</t>
+  </si>
+  <si>
+    <t>Motu Motiro Hiva Marine Park</t>
+  </si>
+  <si>
+    <t>Also known as Sala y Gómez</t>
+  </si>
+  <si>
+    <t>https://bigoceanmanagers.org/mmh</t>
+  </si>
+  <si>
+    <t>It's now part of new Rapa Nui MPA</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/zones/9175</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/sites/83</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/sites/84</t>
+  </si>
+  <si>
+    <t>Niue Moana Mahu Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Lots of different smaller areas combined</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/sites/67</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cordillera de Coiba Area of Managed Resources</t>
+  </si>
+  <si>
+    <t>Month Enforced</t>
+  </si>
+  <si>
+    <t>https://www.bluenaturealliance.org/cordillera-de-coiba</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Expanded from 2015 area of 17,224 km^2</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/zones/68808474</t>
+  </si>
+  <si>
+    <t>No take areas are part of a larger area</t>
+  </si>
+  <si>
+    <t>Freycinet Marine Park</t>
+  </si>
+  <si>
+    <t>No?</t>
+  </si>
+  <si>
+    <t>South-west corner National Park Zone</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/sites/45</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Freycinet_Commonwealth_Marine_Reserve</t>
+  </si>
+  <si>
+    <t>https://mpatlas.org/zones/68808475</t>
+  </si>
+  <si>
+    <t>WDPA ID</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Argo-Rowley Terrace</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Norfolk_Marine_Park</t>
+  </si>
+  <si>
+    <t>Marianas Trench (Islands Unit)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Only part is no-take</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Argo-Rowley_Terrace_Marine_Park</t>
+  </si>
+  <si>
+    <t>555556868_A</t>
+  </si>
+  <si>
+    <t>https://storymaps.arcgis.com/stories/8500ba0b1404463f8cb44153c5234691</t>
+  </si>
+  <si>
+    <t>Not enforced?</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Not in a tuna fishing hotspot</t>
+  </si>
+  <si>
+    <t>Defacto long-term MPA since hardly any fishing inside historically? EEZ established in 1997</t>
+  </si>
+  <si>
+    <t>555556875_A</t>
+  </si>
+  <si>
+    <t>2628_B</t>
+  </si>
+  <si>
+    <t>Monumento Natural Das Ilhas de Trindade, Martim Vaz e Do Monte Columbia</t>
+  </si>
+  <si>
+    <t>354083_A</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>555556901_A</t>
+  </si>
+  <si>
+    <t>Monumento Natural Do Arquipélago De São Pedro E São Paulo</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>WDPA_ID</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>area_km2</t>
+  </si>
+  <si>
+    <t>month_enforced</t>
+  </si>
+  <si>
+    <t>year_enforced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,13 +725,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -470,12 +766,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2503,75 +2813,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F322D286-4693-D745-9B6B-629F1E05FF6E}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6871667-2892-3743-8C2F-3470A250D8F5}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16">
+        <v>220201</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1508846</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="16">
+        <v>555624172</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="18">
+        <v>834334</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="16">
+        <v>555720256</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="18">
+        <v>688628</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16">
+        <v>555512151</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="18">
+        <v>640000</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="16">
+        <v>555637336</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="18">
+        <v>579368</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16">
+        <v>555622118</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="18">
+        <v>475000</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16">
+        <v>555651558</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="18">
+        <v>440000</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="16">
+        <v>309888</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="18">
+        <v>408250</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="16">
+        <v>555624169</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="18">
+        <v>300035</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="16">
+        <v>555643507</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="18">
+        <v>262000</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="18">
+        <v>238400</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="16">
+        <v>555543712</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="18">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="16">
+        <v>555629385</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="18">
+        <v>148644</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B15" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B2">
-        <v>142758.68</v>
-      </c>
-      <c r="C2">
+      <c r="C15" s="16">
+        <v>11753</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="18">
+        <v>142759</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <v>2003</v>
       </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1976000</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="16">
+        <v>555705568</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="18">
+        <v>127003</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="18">
+        <v>124911</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="16">
+        <v>555705293</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="18">
+        <v>67821</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="16">
+        <v>555635929</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="18">
+        <v>67698</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="18">
+        <v>56792</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="18">
+        <v>54841</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="16">
+        <v>555635928</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="18">
+        <v>47200</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="16">
+        <v>400010</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="18">
+        <v>42624</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="16">
+        <v>555556895</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="18">
+        <v>41661</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="18">
+        <v>36050</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -2580,11 +3341,920 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F322D286-4693-D745-9B6B-629F1E05FF6E}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>220201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>1508846</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2016</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2">
+        <v>2006</v>
+      </c>
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>555624172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>834334</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2016</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>555720256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3">
+        <v>688628</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="13">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>555512151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5">
+        <v>640000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2010</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>555637336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6">
+        <v>579368</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>2017</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>555622118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="8">
+        <v>475000</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7">
+        <v>2015</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>555651558</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8">
+        <v>440000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8">
+        <v>2019</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>309888</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9">
+        <v>408250</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2015</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9">
+        <v>2006</v>
+      </c>
+      <c r="L9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>555624169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="10">
+        <v>300035</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2016</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="11">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11">
+        <v>555643507</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="3">
+        <v>262000</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2018</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="6">
+        <v>238400</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <v>2018</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13">
+        <v>555543712</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="15"/>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="7">
+        <v>40452</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14">
+        <v>555629385</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14">
+        <v>148644</v>
+      </c>
+      <c r="F14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2017</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="7">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15">
+        <v>11753</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15">
+        <v>142759</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15">
+        <v>1998</v>
+      </c>
+      <c r="L15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>555705568</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>127003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2020</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="12">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17">
+        <v>124911</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2004</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>555705293</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18">
+        <v>67821</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2021</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19">
+        <v>555635929</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
+        <v>67698</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19">
+        <v>2018</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20">
+        <v>56792</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2007</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21">
+        <v>54841</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2013</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22">
+        <v>555635928</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>400010</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="3">
+        <v>42624</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2009</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24">
+        <v>555556895</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="3">
+        <v>41661</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="13">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="3">
+        <v>36050</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2018</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="13">
+        <v>2017</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="5">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="13">
+        <v>2017</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="5">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>1292967</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2014</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="7">
+        <v>41730</v>
+      </c>
+      <c r="L35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2014</v>
+      </c>
+      <c r="H37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37">
+        <v>2009</v>
+      </c>
+      <c r="L37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>1600000</v>
+      </c>
+      <c r="I39">
+        <v>2016</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
+    <sortCondition descending="1" ref="E2:E25"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="I19" r:id="rId1" xr:uid="{626AC8EA-0113-7D48-A5CF-FF226F65F049}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603A2D2E-B17E-B344-8A3C-E54ADB2141F6}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/list_LSMPAs.xlsx
+++ b/data/list_LSMPAs.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynham/Documents/GitHub/LSMPA_spillover/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynham/Documents/LSMPAs Spillover Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3D2FB-0877-1A4B-BAB0-D13AEB6713F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9FB29-0DCB-C641-8D18-98776170AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="800" windowWidth="28040" windowHeight="16920" xr2:uid="{D1B78ED1-9CC7-5D4E-973A-0C3BB5995D36}"/>
+    <workbookView xWindow="12960" yWindow="1880" windowWidth="28320" windowHeight="19840" activeTab="3" xr2:uid="{D1B78ED1-9CC7-5D4E-973A-0C3BB5995D36}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned" sheetId="3" r:id="rId1"/>
     <sheet name="draft &amp; notes" sheetId="1" r:id="rId2"/>
     <sheet name="Wikipedia" sheetId="2" r:id="rId3"/>
+    <sheet name="Table for Paper" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="310">
   <si>
     <t>Name</t>
   </si>
@@ -678,6 +679,321 @@
   </si>
   <si>
     <t>year_enforced</t>
+  </si>
+  <si>
+    <t>includedq</t>
+  </si>
+  <si>
+    <t>Reason for exclusion</t>
+  </si>
+  <si>
+    <t>Included?</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>August, 2016</t>
+  </si>
+  <si>
+    <t>November, 2017</t>
+  </si>
+  <si>
+    <t>April, 2020</t>
+  </si>
+  <si>
+    <t>January, 2002</t>
+  </si>
+  <si>
+    <t>July, 2004</t>
+  </si>
+  <si>
+    <t>June, 2021</t>
+  </si>
+  <si>
+    <t>March, 2018</t>
+  </si>
+  <si>
+    <t>July, 2018</t>
+  </si>
+  <si>
+    <t>September, 2016</t>
+  </si>
+  <si>
+    <t>November, 2020</t>
+  </si>
+  <si>
+    <t>April, 2010</t>
+  </si>
+  <si>
+    <t>Chagos Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>EEZ</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>January, 2020</t>
+  </si>
+  <si>
+    <t>January, 2015</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>June, 2007</t>
+  </si>
+  <si>
+    <t>December, 2013</t>
+  </si>
+  <si>
+    <t>January, 2009</t>
+  </si>
+  <si>
+    <t>Argo-Rowley Terrace Marine Park</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Month \&amp; Year Enforced</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Not yet enforced</t>
+  </si>
+  <si>
+    <t>Not enough data</t>
+  </si>
+  <si>
+    <t>São Pedro E São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papahānaumokuākea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordillera de Coiba </t>
+  </si>
+  <si>
+    <t>Rapa Nui MPA</t>
+  </si>
+  <si>
+    <t>Coral Sea Marine Park  (NP Zone)</t>
+  </si>
+  <si>
+    <t>Niue Moana Mahu MPA</t>
+  </si>
+  <si>
+    <t>Ascension Island MPA</t>
+  </si>
+  <si>
+    <t>South-west corner NP Zone</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Mar de Juan Fernández MP</t>
+  </si>
+  <si>
+    <t>Nazca-Desventuradas MP</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>High Seas</t>
+  </si>
+  <si>
+    <t>December, 2017</t>
+  </si>
+  <si>
+    <t>No overlap with tuna fisheries</t>
+  </si>
+  <si>
+    <t>Ross Sea Region GPZ (i)</t>
+  </si>
+  <si>
+    <t>PRI (Johnston)</t>
+  </si>
+  <si>
+    <t>September, 2014</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>PRI (Wake)</t>
+  </si>
+  <si>
+    <t>PRI (Jarvis)</t>
+  </si>
+  <si>
+    <t>Palau NMS</t>
+  </si>
+  <si>
+    <t>South Georgia \&amp; South Sandwich</t>
+  </si>
+  <si>
+    <t>Ilhas de Trindade e Martim Vaz</t>
+  </si>
+  <si>
+    <t>June, 2013</t>
+  </si>
+  <si>
+    <t>Motu Motiro Hiva (Salas y Gómez)</t>
+  </si>
+  <si>
+    <t>Is it enforced? Subsumed into Rapa Nui. Discuss.</t>
+  </si>
+  <si>
+    <t>October, 2010</t>
+  </si>
+  <si>
+    <t>Terres Australes Francaises</t>
+  </si>
+  <si>
+    <t>120162*</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>December, 2016</t>
+  </si>
+  <si>
+    <t>South Orkney Islands</t>
+  </si>
+  <si>
+    <t>November, 2009</t>
+  </si>
+  <si>
+    <t>70589*</t>
+  </si>
+  <si>
+    <t>Heard Island \&amp; McDonald Islands</t>
+  </si>
+  <si>
+    <t>March, 2014</t>
+  </si>
+  <si>
+    <t>64978*</t>
+  </si>
+  <si>
+    <t>Russkaya Arktika</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Macquarie Island</t>
+  </si>
+  <si>
+    <t>October, 1999</t>
+  </si>
+  <si>
+    <t>Rose Atoll</t>
+  </si>
+  <si>
+    <t>Too small?</t>
+  </si>
+  <si>
+    <t>August, 2007</t>
+  </si>
+  <si>
+    <t>27215*</t>
+  </si>
+  <si>
+    <t>August, 2018</t>
+  </si>
+  <si>
+    <t>Not a commerical no-take zone</t>
+  </si>
+  <si>
+    <t>July, 2017</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Tuvaijuittuq MPA</t>
+  </si>
+  <si>
+    <t>No-take Area (km2)</t>
+  </si>
+  <si>
+    <t>309947*</t>
+  </si>
+  <si>
+    <t>238398*</t>
+  </si>
+  <si>
+    <t>67698*</t>
+  </si>
+  <si>
+    <t>Flinders (MNPZ)</t>
+  </si>
+  <si>
+    <t>555624810\textunderscore A</t>
+  </si>
+  <si>
+    <t>2628\textunderscore B</t>
+  </si>
+  <si>
+    <t>354086\textunderscore A</t>
+  </si>
+  <si>
+    <t>354083\textunderscore A</t>
+  </si>
+  <si>
+    <t>555556901\textunderscore A</t>
+  </si>
+  <si>
+    <t>555556868\textunderscore A</t>
+  </si>
+  <si>
+    <t>354081\textunderscore A</t>
+  </si>
+  <si>
+    <t>555556875\textunderscore A</t>
   </si>
 </sst>
 </file>
@@ -766,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -776,16 +1092,13 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,1708 +1121,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B704B2-F267-FAC1-55AD-A1BB5F77D339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E767679-62F6-D5A5-A30A-097DB21B6240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651000" y="0"/>
-          <a:ext cx="292100" cy="152400"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7658100" cy="7594600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF635E73-69BB-5DBD-EBFA-722670D7C6EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="203200"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C726BA2-0005-FE74-8463-2D074378A741}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="406400"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC96A0CC-7304-1BFF-7221-4DC1533A1F5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="647700"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAB24D7-7FB5-A1D6-7194-CF4311D9472C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="850900"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D90C16-2419-77B2-BE7D-E5FFC96D9823}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="1054100"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E127793-7861-7B90-0C2E-BDC4252E405E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="1257300"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B3885F-6EC9-D145-6705-F50A66057D90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="1460500"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834033C0-1751-C59E-CB78-8C7AA76381A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="1701800"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE44B4C-EC5D-FCC8-C98F-331357E0084E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="1905000"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD57CB45-59D6-351C-7836-524201D04C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="2108200"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337B46EA-74DF-62D2-650C-C4BF1C028421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="2311400"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B567EC8E-15A3-9900-7FC2-0D55B3E52D84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="2514600"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7FD2DC-10A5-3125-37A5-64FC7946BF11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="2717800"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8B16C5-DACE-619E-3CBC-5E1554021B57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="2921000"/>
-          <a:ext cx="292100" cy="177800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7CAE44-8614-AA5A-7776-DE6764BB9ADF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="3162300"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42258001-038A-0E94-C7B6-19AA4B5107F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="3365500"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEAF24D-A3FB-B0BF-0B9B-8DA3A96053FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="3568700"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2E766C-A5E6-F45A-ABB8-663C3DBD9FE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="3771900"/>
-          <a:ext cx="279400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B12808F-A2B4-E28F-6113-EC6A054E2C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="3975100"/>
-          <a:ext cx="292100" cy="165100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A59826B-5127-0975-4ABD-78C5FFB5A4E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="4178300"/>
-          <a:ext cx="279400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D88264-371B-5145-FFBB-82D9B0482680}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="4381500"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F97A81-EA62-384D-0404-470A0AC8912A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="4584700"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF3FF1C-42DC-39CE-B96E-21AA602BF438}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="4787900"/>
-          <a:ext cx="292100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CBD9E7-E1F3-85C6-1A3A-1AE1B1F80337}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="4991100"/>
-          <a:ext cx="292100" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED86C9C-2416-27CD-8EC4-DD6132907C99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="5232400"/>
-          <a:ext cx="279400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF558995-60AB-44A5-DE37-88B5DF4D5288}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="5435600"/>
-          <a:ext cx="279400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3464C252-7D4F-E550-5BA4-10C673FE6B92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1651000" y="5676900"/>
-          <a:ext cx="279400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2814,524 +1463,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6871667-2892-3743-8C2F-3470A250D8F5}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="66.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="H1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="12">
         <v>220201</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="12">
         <v>1508846</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>555624172</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="12">
         <v>834334</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>555720256</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="12">
         <v>688628</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>555512151</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>640000</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>555637336</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="12">
         <v>579368</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>555622118</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="12">
         <v>475000</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>555651558</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <v>440000</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>309888</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="12">
         <v>408250</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <v>555624169</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="12">
         <v>300035</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>555643507</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="12">
         <v>262000</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="12">
         <v>238400</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16">
+      <c r="F12" s="13"/>
+      <c r="G12" s="12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>555543712</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="12">
         <v>150000</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>555629385</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="12">
         <v>148644</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <v>11753</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="12">
         <v>142759</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="12">
         <v>555705568</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="12">
         <v>127003</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="12">
         <v>124911</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>2004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="12">
         <v>555705293</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="12">
         <v>67821</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="12">
         <v>2021</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="12">
         <v>555635929</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>67698</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="12">
         <v>2018</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="12">
         <v>56792</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>2007</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="12">
         <v>54841</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>2013</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="12">
         <v>555635928</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="12">
         <v>47200</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>2018</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="12">
         <v>400010</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="12">
         <v>42624</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
         <v>2009</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="12">
         <v>555556895</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="12">
         <v>41661</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>2018</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <v>36050</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="12">
         <v>2018</v>
       </c>
     </row>
@@ -3342,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F322D286-4693-D745-9B6B-629F1E05FF6E}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3355,7 +2010,7 @@
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3378,7 +2033,7 @@
       <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
@@ -3416,7 +2071,7 @@
       <c r="E2">
         <v>1508846</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2">
         <v>2016</v>
       </c>
       <c r="H2" t="s">
@@ -3448,7 +2103,7 @@
       <c r="E3">
         <v>834334</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3">
         <v>2016</v>
       </c>
       <c r="H3" t="s">
@@ -3471,7 +2126,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>133</v>
       </c>
       <c r="C4">
@@ -3484,7 +2139,7 @@
         <v>688628</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="13">
+      <c r="G4">
         <v>2020</v>
       </c>
       <c r="H4" t="s">
@@ -3513,7 +2168,7 @@
       <c r="E5">
         <v>640000</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5">
         <v>2010</v>
       </c>
       <c r="H5" t="s">
@@ -3581,7 +2236,7 @@
         <v>475000</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="13">
+      <c r="G7">
         <v>2020</v>
       </c>
       <c r="H7" t="s">
@@ -3613,7 +2268,7 @@
       <c r="E8">
         <v>440000</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="8"/>
       <c r="H8" t="s">
         <v>110</v>
       </c>
@@ -3643,7 +2298,7 @@
       <c r="E9">
         <v>408250</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9">
         <v>2015</v>
       </c>
       <c r="H9" t="s">
@@ -3663,7 +2318,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C10">
@@ -3672,25 +2327,25 @@
       <c r="D10" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>300035</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10">
         <v>2016</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>42278</v>
       </c>
     </row>
@@ -3710,7 +2365,7 @@
       <c r="E11" s="3">
         <v>262000</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11">
         <v>2018</v>
       </c>
       <c r="I11" t="s">
@@ -3727,14 +2382,14 @@
       <c r="C12" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="6">
         <v>238400</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="13">
+      <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
@@ -3760,14 +2415,14 @@
       <c r="C13">
         <v>555543712</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="3">
         <v>150000</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="8"/>
       <c r="I13" t="s">
         <v>148</v>
       </c>
@@ -3791,7 +2446,7 @@
       <c r="C14">
         <v>555629385</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E14">
@@ -3800,7 +2455,7 @@
       <c r="F14" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14">
         <v>2017</v>
       </c>
       <c r="H14" t="s">
@@ -3826,13 +2481,13 @@
       <c r="C15">
         <v>11753</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E15">
         <v>142759</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15">
         <v>2003</v>
       </c>
       <c r="H15" t="s">
@@ -3858,7 +2513,7 @@
       <c r="C16">
         <v>555705568</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E16">
@@ -3867,7 +2522,7 @@
       <c r="F16" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16">
         <v>2020</v>
       </c>
       <c r="H16" t="s">
@@ -3879,18 +2534,18 @@
       <c r="J16" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>43028</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E17">
@@ -3899,7 +2554,7 @@
       <c r="F17" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17">
         <v>2004</v>
       </c>
       <c r="H17" t="s">
@@ -3915,14 +2570,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>157</v>
       </c>
       <c r="C18">
         <v>555705293</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E18">
@@ -3931,7 +2586,7 @@
       <c r="F18" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18">
         <v>2021</v>
       </c>
       <c r="I18" t="s">
@@ -3941,14 +2596,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>187</v>
       </c>
       <c r="C19">
         <v>555635929</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E19">
@@ -3957,7 +2612,7 @@
       <c r="F19" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
@@ -3973,20 +2628,20 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E20">
         <v>56792</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20">
         <v>2007</v>
       </c>
       <c r="H20" t="s">
@@ -3999,20 +2654,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E21">
         <v>54841</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21">
         <v>2013</v>
       </c>
       <c r="H21" t="s">
@@ -4025,14 +2680,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>194</v>
       </c>
       <c r="C22">
         <v>555635928</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="3">
@@ -4041,7 +2696,7 @@
       <c r="F22" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
@@ -4054,34 +2709,34 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>175</v>
       </c>
       <c r="C23">
         <v>400010</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E23" s="3">
         <v>42624</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23">
         <v>2009</v>
       </c>
       <c r="H23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>172</v>
       </c>
       <c r="C24">
         <v>555556895</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E24" s="3">
@@ -4090,7 +2745,7 @@
       <c r="F24" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
@@ -4103,14 +2758,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>173</v>
       </c>
       <c r="C25" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E25" s="3">
@@ -4119,7 +2774,7 @@
       <c r="F25" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25">
         <v>2018</v>
       </c>
       <c r="I25" t="s">
@@ -4129,41 +2784,63 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="13">
-        <v>2017</v>
-      </c>
-      <c r="H33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" t="s">
-        <v>110</v>
-      </c>
-      <c r="K33" s="5">
-        <v>42929</v>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1960083</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="13">
+      <c r="G34">
         <v>2017</v>
       </c>
       <c r="H34" t="s">
         <v>115</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J34" t="s">
@@ -4175,66 +2852,88 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>1292967</v>
-      </c>
-      <c r="G35" s="13">
-        <v>2014</v>
+        <v>118</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35">
+        <v>2017</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="5">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>1292967</v>
+      </c>
+      <c r="G36">
+        <v>2014</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="7">
         <v>41730</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L36" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" s="13">
-        <v>2014</v>
-      </c>
-      <c r="H37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37">
-        <v>2009</v>
-      </c>
-      <c r="L37" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G38">
+        <v>2014</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38">
+        <v>2009</v>
+      </c>
+      <c r="L38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G40" t="s">
         <v>10</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>1600000</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>2016</v>
       </c>
     </row>
@@ -4244,6 +2943,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="I19" r:id="rId1" xr:uid="{626AC8EA-0113-7D48-A5CF-FF226F65F049}"/>
+    <hyperlink ref="I34" r:id="rId2" xr:uid="{4573FCCD-B4D7-4E4A-8B29-A0CF42BA74F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4254,7 +2954,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="B3:F3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5031,6 +3731,1963 @@
     <hyperlink ref="G29" r:id="rId101" location="cite_note-35" display="https://en.wikipedia.org/wiki/List_of_largest_protected_areas - cite_note-35" xr:uid="{5E4F5A57-E99C-8246-95C6-C0753656D2DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId102"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB26836-2817-904A-8365-252522944FB6}">
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1510662</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="12">
+        <v>220201</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1508846</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="12">
+        <v>555624172</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="12">
+        <v>834334</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="12">
+        <v>555720256</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="12">
+        <v>688628</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="12">
+        <v>555512151</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="12">
+        <v>640000</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8">
+        <v>555637336</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="12">
+        <v>578583</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="12">
+        <v>555622118</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="12">
+        <v>475000</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="12">
+        <v>555651558</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="12">
+        <v>440000</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="12">
+        <v>309888</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="12">
+        <v>408250</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12">
+        <v>400011</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="12">
+        <v>407635</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13">
+        <v>400011</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="12">
+        <v>407241</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14">
+        <v>400011</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="12">
+        <v>323100</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15">
+        <v>555703762</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="12">
+        <v>318269</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16">
+        <v>555547601</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="12">
+        <v>555624169</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="12">
+        <v>300035</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18">
+        <v>555643507</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="12">
+        <v>265144</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20">
+        <v>555543712</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" s="12">
+        <v>150079</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="12">
+        <v>555629385</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="12">
+        <v>148644</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="12">
+        <v>11753</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="12">
+        <v>138665</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23">
+        <v>555705568</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="12">
+        <v>127003</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="12">
+        <v>124911</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25">
+        <v>345888</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26">
+        <v>478191</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="12">
+        <v>94717</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27">
+        <v>555577434</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" t="s">
+        <v>279</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28">
+        <v>555635929</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29">
+        <v>555714472</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I30" s="12">
+        <v>57137</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" s="12">
+        <v>56792</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" s="12">
+        <v>54841</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="12">
+        <v>555635928</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="12">
+        <v>47200</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="P33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34">
+        <v>555705293</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="12">
+        <v>45190</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="12">
+        <v>400010</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="12">
+        <v>42624</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="12">
+        <v>555556895</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="12">
+        <v>41661</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O36" s="12"/>
+      <c r="P36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="12">
+        <v>36050</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38">
+        <v>400012</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="12">
+        <v>34803</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="P38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39">
+        <v>555577562</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="P39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="12">
+        <v>25815</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="P40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AF8F1-9EDF-AC46-9BAE-30EDAACDC1B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>